--- a/example/qft7ela.xlsx
+++ b/example/qft7ela.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\Elastic_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\Elastic_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B2A42-95A6-4F81-A5AF-1EF68AE1653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAEF41-28FC-42A4-8036-8B2051D7B7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="3360" windowWidth="24255" windowHeight="11385" xr2:uid="{5090759C-D8B8-4738-B290-514176423DF1}"/>
+    <workbookView xWindow="16815" yWindow="2430" windowWidth="27810" windowHeight="16635" activeTab="1" xr2:uid="{5090759C-D8B8-4738-B290-514176423DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="20" sheetId="1" r:id="rId1"/>
-    <sheet name="18" sheetId="2" r:id="rId2"/>
+    <sheet name="16" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F618A130-F0AD-4D50-BDF8-147F7B9C9594}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,17 +922,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43CB964-2886-487B-8CFD-9BFAC4285100}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
